--- a/data/pca/factorExposure/factorExposure_2017-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02396431977580872</v>
+        <v>-0.01058686703533661</v>
       </c>
       <c r="C2">
-        <v>-0.001042979408424263</v>
+        <v>0.04551450871511951</v>
       </c>
       <c r="D2">
-        <v>0.03498787375769744</v>
+        <v>0.02974869151695914</v>
       </c>
       <c r="E2">
-        <v>-0.00505187383956008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03310168192502905</v>
+      </c>
+      <c r="F2">
+        <v>-0.01033391748783456</v>
+      </c>
+      <c r="G2">
+        <v>0.09431248153709772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01815584088772739</v>
+        <v>-0.04277989765283081</v>
       </c>
       <c r="C3">
-        <v>0.04453958725912607</v>
+        <v>0.1016454330494709</v>
       </c>
       <c r="D3">
-        <v>0.09582304425148108</v>
+        <v>0.01761525302418109</v>
       </c>
       <c r="E3">
-        <v>-0.03464769409701674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09895748452546706</v>
+      </c>
+      <c r="F3">
+        <v>-0.004927274841953144</v>
+      </c>
+      <c r="G3">
+        <v>0.1863545823239934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0254945194017914</v>
+        <v>-0.05553604483507338</v>
       </c>
       <c r="C4">
-        <v>0.01481091985888884</v>
+        <v>0.068519666113089</v>
       </c>
       <c r="D4">
-        <v>0.08708170761779432</v>
+        <v>0.0244783515228202</v>
       </c>
       <c r="E4">
-        <v>0.01543289928835776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02704693233437527</v>
+      </c>
+      <c r="F4">
+        <v>-0.0128481025482152</v>
+      </c>
+      <c r="G4">
+        <v>0.09559481711095391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01463066396543005</v>
+        <v>-0.03683866727177379</v>
       </c>
       <c r="C6">
-        <v>-0.002444764657058603</v>
+        <v>0.05338313398527731</v>
       </c>
       <c r="D6">
-        <v>0.08308659911569929</v>
+        <v>0.01689461813734066</v>
       </c>
       <c r="E6">
-        <v>0.01050796105626546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03125102326292454</v>
+      </c>
+      <c r="F6">
+        <v>-0.01166560330546241</v>
+      </c>
+      <c r="G6">
+        <v>0.07599199872311761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01170786966006617</v>
+        <v>-0.02069229848527462</v>
       </c>
       <c r="C7">
-        <v>0.006063981737295368</v>
+        <v>0.04208609964070644</v>
       </c>
       <c r="D7">
-        <v>0.04343687450321387</v>
+        <v>0.01337535589662977</v>
       </c>
       <c r="E7">
-        <v>0.05330297251639423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004224917782627222</v>
+      </c>
+      <c r="F7">
+        <v>0.003408849299340741</v>
+      </c>
+      <c r="G7">
+        <v>0.1276084943348927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007279778786572948</v>
+        <v>-0.003520930557583463</v>
       </c>
       <c r="C8">
-        <v>0.0001418535547851295</v>
+        <v>0.02496573679945882</v>
       </c>
       <c r="D8">
-        <v>0.00589619141630055</v>
+        <v>0.003900127122019648</v>
       </c>
       <c r="E8">
-        <v>0.008369147317901515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02276248545083759</v>
+      </c>
+      <c r="F8">
+        <v>-0.008103109662710297</v>
+      </c>
+      <c r="G8">
+        <v>0.06528957909348122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01725406142463745</v>
+        <v>-0.0329759512363405</v>
       </c>
       <c r="C9">
-        <v>0.01454264737050245</v>
+        <v>0.04939230354501863</v>
       </c>
       <c r="D9">
-        <v>0.06127684010554895</v>
+        <v>0.01666200126731262</v>
       </c>
       <c r="E9">
-        <v>0.005517305498817007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01696292809641235</v>
+      </c>
+      <c r="F9">
+        <v>-0.0107334012858299</v>
+      </c>
+      <c r="G9">
+        <v>0.09493096729567972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02700532343508218</v>
+        <v>-0.09911831882504925</v>
       </c>
       <c r="C10">
-        <v>0.168493773150079</v>
+        <v>-0.1807463686870489</v>
       </c>
       <c r="D10">
-        <v>-0.1108165498609983</v>
+        <v>-0.01472634506525925</v>
       </c>
       <c r="E10">
-        <v>-0.02178408133657767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02060578887115151</v>
+      </c>
+      <c r="F10">
+        <v>0.02148692641786289</v>
+      </c>
+      <c r="G10">
+        <v>0.06015660933472836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001326781846355508</v>
+        <v>-0.03485222347682505</v>
       </c>
       <c r="C11">
-        <v>0.004719170106961423</v>
+        <v>0.05516258194092735</v>
       </c>
       <c r="D11">
-        <v>0.05675161020206099</v>
+        <v>0.0022543581810713</v>
       </c>
       <c r="E11">
-        <v>0.0009195819319793068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009822126618075825</v>
+      </c>
+      <c r="F11">
+        <v>-0.02148829047294633</v>
+      </c>
+      <c r="G11">
+        <v>0.08395539923758959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006049118294922977</v>
+        <v>-0.03653538901441658</v>
       </c>
       <c r="C12">
-        <v>0.005158518634472467</v>
+        <v>0.04957602598081265</v>
       </c>
       <c r="D12">
-        <v>0.05232530189743286</v>
+        <v>0.006168770767857931</v>
       </c>
       <c r="E12">
-        <v>0.01314740380375151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002642838765760909</v>
+      </c>
+      <c r="F12">
+        <v>-0.0017299601294679</v>
+      </c>
+      <c r="G12">
+        <v>0.07873773953370906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02482164920311464</v>
+        <v>-0.01575542319781834</v>
       </c>
       <c r="C13">
-        <v>0.018314232323993</v>
+        <v>0.04067665382061132</v>
       </c>
       <c r="D13">
-        <v>0.03347425152600329</v>
+        <v>0.02619276243203734</v>
       </c>
       <c r="E13">
-        <v>-0.01121336395805349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03022140025301768</v>
+      </c>
+      <c r="F13">
+        <v>-0.008485319695456048</v>
+      </c>
+      <c r="G13">
+        <v>0.1183756642830889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009205281426759667</v>
+        <v>-0.00877408169953158</v>
       </c>
       <c r="C14">
-        <v>0.01322880887116217</v>
+        <v>0.02943884893398634</v>
       </c>
       <c r="D14">
-        <v>0.01928166511803034</v>
+        <v>0.009842951368185041</v>
       </c>
       <c r="E14">
-        <v>0.003270544986494186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002270541275874115</v>
+      </c>
+      <c r="F14">
+        <v>0.008187184162595097</v>
+      </c>
+      <c r="G14">
+        <v>0.09804688187274792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002029147874609602</v>
+        <v>-0.03328991863730473</v>
       </c>
       <c r="C16">
-        <v>0.009675290864062836</v>
+        <v>0.04854479686570123</v>
       </c>
       <c r="D16">
-        <v>0.05042757926381203</v>
+        <v>0.001842970967565574</v>
       </c>
       <c r="E16">
-        <v>0.01077141035381252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009269868486395579</v>
+      </c>
+      <c r="F16">
+        <v>-0.002890391020524144</v>
+      </c>
+      <c r="G16">
+        <v>0.08680915397934287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01598589192052444</v>
+        <v>-0.02156922348544995</v>
       </c>
       <c r="C19">
-        <v>0.01851325853309196</v>
+        <v>0.05418429658066969</v>
       </c>
       <c r="D19">
-        <v>0.04492214046881471</v>
+        <v>0.01898706544686714</v>
       </c>
       <c r="E19">
-        <v>0.008096420460707059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06886416939739537</v>
+      </c>
+      <c r="F19">
+        <v>-0.0243032445762774</v>
+      </c>
+      <c r="G19">
+        <v>0.1318724127396421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0115360601629319</v>
+        <v>-0.01488698559834535</v>
       </c>
       <c r="C20">
-        <v>0.006645605571504643</v>
+        <v>0.04014942411397875</v>
       </c>
       <c r="D20">
-        <v>0.03332789928824673</v>
+        <v>0.01407954694643311</v>
       </c>
       <c r="E20">
-        <v>-0.01615729837747951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02944558271974789</v>
+      </c>
+      <c r="F20">
+        <v>0.01006551003104493</v>
+      </c>
+      <c r="G20">
+        <v>0.1056279717703251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01577078263866311</v>
+        <v>-0.01256719503199389</v>
       </c>
       <c r="C21">
-        <v>0.01626558249056625</v>
+        <v>0.0406443493964148</v>
       </c>
       <c r="D21">
-        <v>0.03761017966854978</v>
+        <v>0.01862414537392547</v>
       </c>
       <c r="E21">
-        <v>0.0005147960300951744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04225765480743388</v>
+      </c>
+      <c r="F21">
+        <v>-0.003370622131502962</v>
+      </c>
+      <c r="G21">
+        <v>0.1295378266545574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006605120880908885</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002519815336051791</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002928504810829875</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0009632310292168664</v>
+      </c>
+      <c r="F22">
+        <v>-0.0004012366980099511</v>
+      </c>
+      <c r="G22">
+        <v>0.002112437475013063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006648589181505016</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002515955915408945</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002929774580051298</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0009690001503233494</v>
+      </c>
+      <c r="F23">
+        <v>-0.000399850625517491</v>
+      </c>
+      <c r="G23">
+        <v>0.002123989526457419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004538840830876359</v>
+        <v>-0.0284017116340945</v>
       </c>
       <c r="C24">
-        <v>-0.002423220947769011</v>
+        <v>0.05175651555113665</v>
       </c>
       <c r="D24">
-        <v>0.05146939989246475</v>
+        <v>0.007047712582754348</v>
       </c>
       <c r="E24">
-        <v>0.01031283372770025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005388616546156858</v>
+      </c>
+      <c r="F24">
+        <v>-0.0136916433662556</v>
+      </c>
+      <c r="G24">
+        <v>0.08541680323572452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01308707587170819</v>
+        <v>-0.04312481717998582</v>
       </c>
       <c r="C25">
-        <v>0.0152396756767669</v>
+        <v>0.05953168954426217</v>
       </c>
       <c r="D25">
-        <v>0.05937044632976284</v>
+        <v>0.01105472808677907</v>
       </c>
       <c r="E25">
-        <v>0.0127097757103238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001642297103304527</v>
+      </c>
+      <c r="F25">
+        <v>-0.007484296962116602</v>
+      </c>
+      <c r="G25">
+        <v>0.09558986622392214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02290474633516924</v>
+        <v>-0.01384236297374176</v>
       </c>
       <c r="C26">
-        <v>0.003162574145466494</v>
+        <v>0.0120976396973124</v>
       </c>
       <c r="D26">
-        <v>0.00286671737497151</v>
+        <v>0.02410369549686034</v>
       </c>
       <c r="E26">
-        <v>0.007029226442949918</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007100911244982873</v>
+      </c>
+      <c r="F26">
+        <v>0.007307922905663074</v>
+      </c>
+      <c r="G26">
+        <v>0.07887623767969588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05176942524507598</v>
+        <v>-0.1259479156157934</v>
       </c>
       <c r="C28">
-        <v>0.2348556484975037</v>
+        <v>-0.2366682106167545</v>
       </c>
       <c r="D28">
-        <v>-0.1407674519124872</v>
+        <v>-0.005628266618963231</v>
       </c>
       <c r="E28">
-        <v>0.005754266992215958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006903593136425146</v>
+      </c>
+      <c r="F28">
+        <v>0.01443665734476953</v>
+      </c>
+      <c r="G28">
+        <v>0.05639289372953105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009748922339100926</v>
+        <v>-0.00971033804164291</v>
       </c>
       <c r="C29">
-        <v>0.01780380654691593</v>
+        <v>0.02318985325897227</v>
       </c>
       <c r="D29">
-        <v>0.01992635949659752</v>
+        <v>0.008871825774371362</v>
       </c>
       <c r="E29">
-        <v>0.0005060660337561249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001203180782979678</v>
+      </c>
+      <c r="F29">
+        <v>0.01717861962277461</v>
+      </c>
+      <c r="G29">
+        <v>0.09145184845261174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02472013560611706</v>
+        <v>-0.04143927156926432</v>
       </c>
       <c r="C30">
-        <v>-0.0001077683962336513</v>
+        <v>0.07018115024669265</v>
       </c>
       <c r="D30">
-        <v>0.09812627372652426</v>
+        <v>0.02868921285153299</v>
       </c>
       <c r="E30">
-        <v>-0.03324664973015716</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05209083542930423</v>
+      </c>
+      <c r="F30">
+        <v>-0.04828510752746278</v>
+      </c>
+      <c r="G30">
+        <v>0.1037072727338309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01090440936538892</v>
+        <v>-0.05287423971455229</v>
       </c>
       <c r="C31">
-        <v>0.03472282516134156</v>
+        <v>0.03804107722930561</v>
       </c>
       <c r="D31">
-        <v>0.03569457494191041</v>
+        <v>0.00382495759724308</v>
       </c>
       <c r="E31">
-        <v>0.004691795030433394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001266047077419411</v>
+      </c>
+      <c r="F31">
+        <v>0.03922122476820993</v>
+      </c>
+      <c r="G31">
+        <v>0.0923759728946601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005219365928748275</v>
+        <v>-0.00127770290822431</v>
       </c>
       <c r="C32">
-        <v>0.01652084021663492</v>
+        <v>0.02582491742916615</v>
       </c>
       <c r="D32">
-        <v>0.008324409036281736</v>
+        <v>-0.003340798260543951</v>
       </c>
       <c r="E32">
-        <v>0.05199122204683078</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01983406635164031</v>
+      </c>
+      <c r="F32">
+        <v>-0.04159519563713669</v>
+      </c>
+      <c r="G32">
+        <v>0.09348330647722281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01478283110012946</v>
+        <v>-0.02796590877103377</v>
       </c>
       <c r="C33">
-        <v>0.02066822315975355</v>
+        <v>0.05092965452323826</v>
       </c>
       <c r="D33">
-        <v>0.04049538406889917</v>
+        <v>0.01568192067384731</v>
       </c>
       <c r="E33">
-        <v>-0.02085271594085062</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03610864667666568</v>
+      </c>
+      <c r="F33">
+        <v>-0.01815814934681245</v>
+      </c>
+      <c r="G33">
+        <v>0.1430118294944897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002844047436493627</v>
+        <v>-0.04068103056030196</v>
       </c>
       <c r="C34">
-        <v>0.01833396003409363</v>
+        <v>0.06211686624677554</v>
       </c>
       <c r="D34">
-        <v>0.05921546184572592</v>
+        <v>-0.0048332959855227</v>
       </c>
       <c r="E34">
-        <v>0.02100742192834078</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0007258573446606361</v>
+      </c>
+      <c r="F34">
+        <v>-0.02015863673203694</v>
+      </c>
+      <c r="G34">
+        <v>0.09216962293929942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01349321014996391</v>
+        <v>-0.01625483606044832</v>
       </c>
       <c r="C36">
-        <v>0.01593062353406835</v>
+        <v>0.00970424369979182</v>
       </c>
       <c r="D36">
-        <v>0.005484274871917204</v>
+        <v>0.01225520294887611</v>
       </c>
       <c r="E36">
-        <v>0.005262009596115047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004136998930097399</v>
+      </c>
+      <c r="F36">
+        <v>0.006274070891108251</v>
+      </c>
+      <c r="G36">
+        <v>0.08512627525492535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001080754184357308</v>
+        <v>-0.03207465341158067</v>
       </c>
       <c r="C38">
-        <v>0.03462772211522621</v>
+        <v>0.03221533531587582</v>
       </c>
       <c r="D38">
-        <v>0.04783765257921538</v>
+        <v>-0.007517609421651875</v>
       </c>
       <c r="E38">
-        <v>0.01085031847297079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002919923137755897</v>
+      </c>
+      <c r="F38">
+        <v>0.01877735602089943</v>
+      </c>
+      <c r="G38">
+        <v>0.08076385498630134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004594103069402893</v>
+        <v>-0.03651818555622471</v>
       </c>
       <c r="C39">
-        <v>-0.02031219332607585</v>
+        <v>0.08216089919385723</v>
       </c>
       <c r="D39">
-        <v>0.1048883213164485</v>
+        <v>0.01137821944487652</v>
       </c>
       <c r="E39">
-        <v>-0.007295019584502981</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02126353264392049</v>
+      </c>
+      <c r="F39">
+        <v>-0.02485171258305759</v>
+      </c>
+      <c r="G39">
+        <v>0.08357639956784001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01279260053490763</v>
+        <v>-0.01522350390724256</v>
       </c>
       <c r="C40">
-        <v>0.0132535630368015</v>
+        <v>0.04354962471836558</v>
       </c>
       <c r="D40">
-        <v>0.04146350419334032</v>
+        <v>0.01475800573132926</v>
       </c>
       <c r="E40">
-        <v>0.01450449323037941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02018181010966075</v>
+      </c>
+      <c r="F40">
+        <v>0.01557738833342613</v>
+      </c>
+      <c r="G40">
+        <v>0.1215942460450635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006945976877957206</v>
+        <v>-0.02019922545042471</v>
       </c>
       <c r="C41">
-        <v>0.02009296917499877</v>
+        <v>0.002459317783829761</v>
       </c>
       <c r="D41">
-        <v>-0.0119431046931759</v>
+        <v>0.004306855975609105</v>
       </c>
       <c r="E41">
-        <v>0.007492057366757657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002857460810760096</v>
+      </c>
+      <c r="F41">
+        <v>0.01335925216414456</v>
+      </c>
+      <c r="G41">
+        <v>0.07293208574379212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09109278132797329</v>
+        <v>-0.01015659119183005</v>
       </c>
       <c r="C42">
-        <v>-0.02255430537909229</v>
+        <v>0.03147134075102045</v>
       </c>
       <c r="D42">
-        <v>0.1534814831730454</v>
+        <v>0.09022952539664933</v>
       </c>
       <c r="E42">
-        <v>-0.3808930604384753</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0181672989627475</v>
+      </c>
+      <c r="F42">
+        <v>0.04417953185289832</v>
+      </c>
+      <c r="G42">
+        <v>-0.1247760411132186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008694558086966592</v>
+        <v>-0.03413630101884085</v>
       </c>
       <c r="C43">
-        <v>0.02620505688790015</v>
+        <v>0.01804452240541042</v>
       </c>
       <c r="D43">
-        <v>-0.008038172343317083</v>
+        <v>0.005998306549445581</v>
       </c>
       <c r="E43">
-        <v>0.009328696908107338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01668091849943598</v>
+      </c>
+      <c r="F43">
+        <v>0.00292557307760207</v>
+      </c>
+      <c r="G43">
+        <v>0.1072786559175873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003730777880002456</v>
+        <v>-0.01271695551837435</v>
       </c>
       <c r="C44">
-        <v>0.005369739677769912</v>
+        <v>0.05999958826291847</v>
       </c>
       <c r="D44">
-        <v>0.0555231514971065</v>
+        <v>0.006689898259463362</v>
       </c>
       <c r="E44">
-        <v>0.01443241465938517</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01800502769843814</v>
+      </c>
+      <c r="F44">
+        <v>0.008000597745099718</v>
+      </c>
+      <c r="G44">
+        <v>0.1014385380720076</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01154711038384526</v>
+        <v>-0.008191674983178559</v>
       </c>
       <c r="C46">
-        <v>0.01074946509616873</v>
+        <v>0.01816658109256926</v>
       </c>
       <c r="D46">
-        <v>0.006565642605186273</v>
+        <v>0.01257759900681061</v>
       </c>
       <c r="E46">
-        <v>-0.006285442783354449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001442586325195102</v>
+      </c>
+      <c r="F46">
+        <v>0.01648895796457676</v>
+      </c>
+      <c r="G46">
+        <v>0.09526695058904212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.005844056158563935</v>
+        <v>-0.07738150541822746</v>
       </c>
       <c r="C47">
-        <v>0.04499876060116545</v>
+        <v>0.06706452014626493</v>
       </c>
       <c r="D47">
-        <v>0.07271989765255751</v>
+        <v>-0.005139677526168483</v>
       </c>
       <c r="E47">
-        <v>0.01180838407131646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00628165056242689</v>
+      </c>
+      <c r="F47">
+        <v>0.05464944819181299</v>
+      </c>
+      <c r="G47">
+        <v>0.081706227737789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004727520588967898</v>
+        <v>-0.01947683484516979</v>
       </c>
       <c r="C48">
-        <v>0.02042031600012746</v>
+        <v>0.01292160571328932</v>
       </c>
       <c r="D48">
-        <v>0.01759372580686806</v>
+        <v>0.00194735183595781</v>
       </c>
       <c r="E48">
-        <v>-0.0002502221973770992</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002126736573338814</v>
+      </c>
+      <c r="F48">
+        <v>0.01892899987458346</v>
+      </c>
+      <c r="G48">
+        <v>0.08780389873851792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.00819249229036989</v>
+        <v>-0.07475027862136994</v>
       </c>
       <c r="C50">
-        <v>0.04770031155590178</v>
+        <v>0.07216454380776034</v>
       </c>
       <c r="D50">
-        <v>0.06999775331361874</v>
+        <v>-0.002460816395042681</v>
       </c>
       <c r="E50">
-        <v>0.02942470928463794</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.006329702232538851</v>
+      </c>
+      <c r="F50">
+        <v>0.05515877780127203</v>
+      </c>
+      <c r="G50">
+        <v>0.09344620131495221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008409240157098615</v>
+        <v>-0.01455461655101278</v>
       </c>
       <c r="C51">
-        <v>0.01463075365567218</v>
+        <v>0.03754597899737941</v>
       </c>
       <c r="D51">
-        <v>0.02117532836098358</v>
+        <v>0.01034306190741703</v>
       </c>
       <c r="E51">
-        <v>0.0104979911729799</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01822954766478825</v>
+      </c>
+      <c r="F51">
+        <v>-0.02444931132869881</v>
+      </c>
+      <c r="G51">
+        <v>0.1176698735985513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.009771980254830779</v>
+        <v>-0.08169166902745512</v>
       </c>
       <c r="C53">
-        <v>0.05230573017358094</v>
+        <v>0.08553045593196572</v>
       </c>
       <c r="D53">
-        <v>0.1253256448604686</v>
+        <v>-0.003602618794698486</v>
       </c>
       <c r="E53">
-        <v>0.01700830967135182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0242420373029697</v>
+      </c>
+      <c r="F53">
+        <v>0.06651180701894331</v>
+      </c>
+      <c r="G53">
+        <v>0.08046382574736714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002944237647060037</v>
+        <v>-0.03107696915032193</v>
       </c>
       <c r="C54">
-        <v>0.03439705501863662</v>
+        <v>0.01723842687556976</v>
       </c>
       <c r="D54">
-        <v>-0.0008403793893800173</v>
+        <v>-0.001526147813072777</v>
       </c>
       <c r="E54">
-        <v>-0.01053222169401867</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01281116796475661</v>
+      </c>
+      <c r="F54">
+        <v>0.002792865675132869</v>
+      </c>
+      <c r="G54">
+        <v>0.09682467080052902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005293633153156728</v>
+        <v>-0.07193391233092664</v>
       </c>
       <c r="C55">
-        <v>0.03561406449928765</v>
+        <v>0.06943455664664636</v>
       </c>
       <c r="D55">
-        <v>0.1040225371377305</v>
+        <v>-0.005094770992699409</v>
       </c>
       <c r="E55">
-        <v>0.006148980146588883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02141125583623816</v>
+      </c>
+      <c r="F55">
+        <v>0.06315840272445411</v>
+      </c>
+      <c r="G55">
+        <v>0.05849927435826431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.009364070482440288</v>
+        <v>-0.1377272742823265</v>
       </c>
       <c r="C56">
-        <v>0.07580592098935567</v>
+        <v>0.1086970166828464</v>
       </c>
       <c r="D56">
-        <v>0.155347753457921</v>
+        <v>-0.01275557911072963</v>
       </c>
       <c r="E56">
-        <v>0.01836409044879597</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02996294446176292</v>
+      </c>
+      <c r="F56">
+        <v>0.08226985303729568</v>
+      </c>
+      <c r="G56">
+        <v>0.03064153671560771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02520363829314379</v>
+        <v>-0.006782302966078495</v>
       </c>
       <c r="C57">
-        <v>0.01047725979053259</v>
+        <v>0.008747489199363806</v>
       </c>
       <c r="D57">
-        <v>0.04185215059643198</v>
+        <v>0.0234163515628017</v>
       </c>
       <c r="E57">
-        <v>-0.02706218194241114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02545135291621286</v>
+      </c>
+      <c r="F57">
+        <v>-0.01091038520619836</v>
+      </c>
+      <c r="G57">
+        <v>0.02898130783506323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01387794165555084</v>
+        <v>-0.05404397540635753</v>
       </c>
       <c r="C58">
-        <v>0.06232533800779333</v>
+        <v>0.05321122499435368</v>
       </c>
       <c r="D58">
-        <v>0.1330908942026279</v>
+        <v>0.0235111048844636</v>
       </c>
       <c r="E58">
-        <v>-0.7109560561783674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9384616865857131</v>
+      </c>
+      <c r="F58">
+        <v>0.2131463984273195</v>
+      </c>
+      <c r="G58">
+        <v>-0.1542264469118569</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.05263513949469664</v>
+        <v>-0.1604253817049659</v>
       </c>
       <c r="C59">
-        <v>0.263472223561809</v>
+        <v>-0.2031630965673342</v>
       </c>
       <c r="D59">
-        <v>-0.1298051986705961</v>
+        <v>-0.01108558323692854</v>
       </c>
       <c r="E59">
-        <v>0.02177442822309225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0183148768153601</v>
+      </c>
+      <c r="F59">
+        <v>-0.002465130803281604</v>
+      </c>
+      <c r="G59">
+        <v>0.04323832262726742</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0515847549536794</v>
+        <v>-0.2865021829650397</v>
       </c>
       <c r="C60">
-        <v>0.1670096513822001</v>
+        <v>0.1066156411743041</v>
       </c>
       <c r="D60">
-        <v>0.1236648431463035</v>
+        <v>0.01170773252930639</v>
       </c>
       <c r="E60">
-        <v>0.06463274860136134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01303329616900769</v>
+      </c>
+      <c r="F60">
+        <v>-0.3448347990391471</v>
+      </c>
+      <c r="G60">
+        <v>-0.1461303676173017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003881902555457874</v>
+        <v>-0.03800671102926503</v>
       </c>
       <c r="C61">
-        <v>0.005281272780241208</v>
+        <v>0.06744577956971087</v>
       </c>
       <c r="D61">
-        <v>0.0752213748879338</v>
+        <v>0.005154628299381116</v>
       </c>
       <c r="E61">
-        <v>0.01003055402966802</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01359526422342705</v>
+      </c>
+      <c r="F61">
+        <v>-0.0159654164127719</v>
+      </c>
+      <c r="G61">
+        <v>0.08820156924865002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008892938317757336</v>
+        <v>-0.01506732570677508</v>
       </c>
       <c r="C63">
-        <v>0.008140154381886214</v>
+        <v>0.03060081804086984</v>
       </c>
       <c r="D63">
-        <v>0.02718151479366288</v>
+        <v>0.00855350145397534</v>
       </c>
       <c r="E63">
-        <v>0.01706453662586145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001754878294440004</v>
+      </c>
+      <c r="F63">
+        <v>0.0156931345478817</v>
+      </c>
+      <c r="G63">
+        <v>0.09110559942156775</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01050045937759047</v>
+        <v>-0.04766637850882519</v>
       </c>
       <c r="C64">
-        <v>0.02911525218216123</v>
+        <v>0.04737139441565622</v>
       </c>
       <c r="D64">
-        <v>0.06016930344958341</v>
+        <v>0.00601308220856827</v>
       </c>
       <c r="E64">
-        <v>0.005171155899865569</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0004657176209122677</v>
+      </c>
+      <c r="F64">
+        <v>-0.006621098647008316</v>
+      </c>
+      <c r="G64">
+        <v>0.0846264818646888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01846408548588831</v>
+        <v>-0.07475618052864864</v>
       </c>
       <c r="C65">
-        <v>0.00495898586124544</v>
+        <v>0.06031609036145483</v>
       </c>
       <c r="D65">
-        <v>0.1102790920519431</v>
+        <v>0.01645976174405634</v>
       </c>
       <c r="E65">
-        <v>0.02494061513917208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03199971360408389</v>
+      </c>
+      <c r="F65">
+        <v>-0.03182942780140733</v>
+      </c>
+      <c r="G65">
+        <v>0.03206438370719532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005333820464693086</v>
+        <v>-0.05167674798803758</v>
       </c>
       <c r="C66">
-        <v>-0.01402869011400935</v>
+        <v>0.1099564181447551</v>
       </c>
       <c r="D66">
-        <v>0.1372339089318747</v>
+        <v>0.01134584519997845</v>
       </c>
       <c r="E66">
-        <v>-0.001172360784884091</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03009824195459805</v>
+      </c>
+      <c r="F66">
+        <v>-0.03679126655233456</v>
+      </c>
+      <c r="G66">
+        <v>0.09975886188333669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.006387856399510979</v>
+        <v>-0.05515799398360944</v>
       </c>
       <c r="C67">
-        <v>0.0555581242109949</v>
+        <v>0.0355765758952693</v>
       </c>
       <c r="D67">
-        <v>0.06238744452160827</v>
+        <v>-0.005921964012426338</v>
       </c>
       <c r="E67">
-        <v>0.01339261306402153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003583825057278467</v>
+      </c>
+      <c r="F67">
+        <v>0.01773094941760739</v>
+      </c>
+      <c r="G67">
+        <v>0.07273022089876191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06624489806963556</v>
+        <v>-0.1541434155424136</v>
       </c>
       <c r="C68">
-        <v>0.2342677526190874</v>
+        <v>-0.2694141350737513</v>
       </c>
       <c r="D68">
-        <v>-0.1722125777223027</v>
+        <v>0.006330787988229282</v>
       </c>
       <c r="E68">
-        <v>-0.02310328929069713</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01261891273171859</v>
+      </c>
+      <c r="F68">
+        <v>0.03326660845236173</v>
+      </c>
+      <c r="G68">
+        <v>0.03160833434144123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00163447506465024</v>
+        <v>-0.08183696349657195</v>
       </c>
       <c r="C69">
-        <v>0.0403678676573838</v>
+        <v>0.07044544262949178</v>
       </c>
       <c r="D69">
-        <v>0.07816022706871398</v>
+        <v>-0.009051525074133966</v>
       </c>
       <c r="E69">
-        <v>0.0241594784958785</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02259132331252568</v>
+      </c>
+      <c r="F69">
+        <v>0.03657068692882783</v>
+      </c>
+      <c r="G69">
+        <v>0.09087964373417363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05064270195216906</v>
+        <v>-0.1404789371041882</v>
       </c>
       <c r="C71">
-        <v>0.2077446735652852</v>
+        <v>-0.2274323154236045</v>
       </c>
       <c r="D71">
-        <v>-0.1206502738054703</v>
+        <v>-0.002255834782446687</v>
       </c>
       <c r="E71">
-        <v>-0.01906524004591255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03353424161439209</v>
+      </c>
+      <c r="F71">
+        <v>0.01787825656010215</v>
+      </c>
+      <c r="G71">
+        <v>0.06670457021399595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0002234600370152668</v>
+        <v>-0.08485451817708874</v>
       </c>
       <c r="C72">
-        <v>0.03533423167476684</v>
+        <v>0.07294621359650613</v>
       </c>
       <c r="D72">
-        <v>0.1058695812967854</v>
+        <v>-0.008438133208350386</v>
       </c>
       <c r="E72">
-        <v>0.03253320159386942</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005456892693342353</v>
+      </c>
+      <c r="F72">
+        <v>-0.03827991502336017</v>
+      </c>
+      <c r="G72">
+        <v>0.0778946507640446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.06645205536614469</v>
+        <v>-0.3762201735785939</v>
       </c>
       <c r="C73">
-        <v>0.1948884710427008</v>
+        <v>0.1166714587207086</v>
       </c>
       <c r="D73">
-        <v>0.2374513156121512</v>
+        <v>0.01967020219414273</v>
       </c>
       <c r="E73">
-        <v>0.03707262379213774</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05395194551892747</v>
+      </c>
+      <c r="F73">
+        <v>-0.5739223161008972</v>
+      </c>
+      <c r="G73">
+        <v>-0.2646600076126626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.007320499314644609</v>
+        <v>-0.1047115807923081</v>
       </c>
       <c r="C74">
-        <v>0.06759325329185292</v>
+        <v>0.1091539100777186</v>
       </c>
       <c r="D74">
-        <v>0.1688631909295797</v>
+        <v>-0.009379064670284773</v>
       </c>
       <c r="E74">
-        <v>0.01169850123661232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.005318348007364321</v>
+      </c>
+      <c r="F74">
+        <v>0.06809732540797207</v>
+      </c>
+      <c r="G74">
+        <v>0.07417866582373042</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01877417318710001</v>
+        <v>-0.2483785824426185</v>
       </c>
       <c r="C75">
-        <v>0.1568408915043704</v>
+        <v>0.1525978928849738</v>
       </c>
       <c r="D75">
-        <v>0.2906397815082719</v>
+        <v>-0.03079182547017729</v>
       </c>
       <c r="E75">
-        <v>0.01372673607401634</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05302209882719754</v>
+      </c>
+      <c r="F75">
+        <v>0.1791070723834797</v>
+      </c>
+      <c r="G75">
+        <v>-0.04079887112248244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005649492498740708</v>
+        <v>-0.1199045314250489</v>
       </c>
       <c r="C76">
-        <v>0.09658345344848776</v>
+        <v>0.1102249696734209</v>
       </c>
       <c r="D76">
-        <v>0.2138216428396786</v>
+        <v>-0.01872961252160634</v>
       </c>
       <c r="E76">
-        <v>0.04584713947950541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02772242746879417</v>
+      </c>
+      <c r="F76">
+        <v>0.1123247716132715</v>
+      </c>
+      <c r="G76">
+        <v>0.05328163554155967</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01579572526500532</v>
+        <v>-0.06788702371349283</v>
       </c>
       <c r="C77">
-        <v>0.02399939236058523</v>
+        <v>0.06093220392550696</v>
       </c>
       <c r="D77">
-        <v>0.06506700110858132</v>
+        <v>0.01127227486233658</v>
       </c>
       <c r="E77">
-        <v>-0.006883718292379388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04041661476436571</v>
+      </c>
+      <c r="F77">
+        <v>-0.01428788852878164</v>
+      </c>
+      <c r="G77">
+        <v>0.05926159886592767</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006164016074458242</v>
+        <v>-0.04217383041058462</v>
       </c>
       <c r="C78">
-        <v>0.01452600751462285</v>
+        <v>0.05216869610097008</v>
       </c>
       <c r="D78">
-        <v>0.05484019484964859</v>
+        <v>0.00533900769558191</v>
       </c>
       <c r="E78">
-        <v>0.000294752692112411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.021580233050126</v>
+      </c>
+      <c r="F78">
+        <v>-0.03702519324553882</v>
+      </c>
+      <c r="G78">
+        <v>0.08619417328936128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01268742957033268</v>
+        <v>-0.04332883569190668</v>
       </c>
       <c r="C80">
-        <v>0.02532264891150525</v>
+        <v>0.07415590156247059</v>
       </c>
       <c r="D80">
-        <v>0.1551680556370836</v>
+        <v>0.01142745082829895</v>
       </c>
       <c r="E80">
-        <v>0.5423368510475439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03188558383031628</v>
+      </c>
+      <c r="F80">
+        <v>-0.0271015010666129</v>
+      </c>
+      <c r="G80">
+        <v>0.3535780448794175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01287932861208416</v>
+        <v>-0.1389342492414712</v>
       </c>
       <c r="C81">
-        <v>0.09815636118908182</v>
+        <v>0.09664926775455247</v>
       </c>
       <c r="D81">
-        <v>0.1731404043932596</v>
+        <v>-0.01521495273505884</v>
       </c>
       <c r="E81">
-        <v>0.02966160534569978</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03198587092825754</v>
+      </c>
+      <c r="F81">
+        <v>0.133493648443519</v>
+      </c>
+      <c r="G81">
+        <v>0.02311049337924304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1280635786223186</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07367993591237827</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008308065110634248</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08993387356243912</v>
+      </c>
+      <c r="F82">
+        <v>0.04389593708535418</v>
+      </c>
+      <c r="G82">
+        <v>0.05658841822697347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008646846437937209</v>
+        <v>-0.03646762790273914</v>
       </c>
       <c r="C83">
-        <v>0.0226983995437755</v>
+        <v>0.03000926644794397</v>
       </c>
       <c r="D83">
-        <v>0.03574151994369942</v>
+        <v>0.005644510165334982</v>
       </c>
       <c r="E83">
-        <v>-0.008401782253685023</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02759637267483639</v>
+      </c>
+      <c r="F83">
+        <v>-0.03287346742325346</v>
+      </c>
+      <c r="G83">
+        <v>0.06015224864474443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02469735196475113</v>
+        <v>-0.2137081774863853</v>
       </c>
       <c r="C85">
-        <v>0.1224253022588997</v>
+        <v>0.145477850783871</v>
       </c>
       <c r="D85">
-        <v>0.2580944649712832</v>
+        <v>-0.01806355934272291</v>
       </c>
       <c r="E85">
-        <v>0.0248578258486851</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09287080839104335</v>
+      </c>
+      <c r="F85">
+        <v>0.1384004734668629</v>
+      </c>
+      <c r="G85">
+        <v>-0.09711309615005845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01076305624920993</v>
+        <v>-0.01408351396414969</v>
       </c>
       <c r="C86">
-        <v>0.02837194169393583</v>
+        <v>0.03065108609725426</v>
       </c>
       <c r="D86">
-        <v>0.06092345942019842</v>
+        <v>0.01238621201772007</v>
       </c>
       <c r="E86">
-        <v>-0.02220180951809647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04874524666148802</v>
+      </c>
+      <c r="F86">
+        <v>-0.03262358930576519</v>
+      </c>
+      <c r="G86">
+        <v>0.1797957431467074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008133435539522244</v>
+        <v>-0.02240331235081038</v>
       </c>
       <c r="C87">
-        <v>0.0006710148225821126</v>
+        <v>0.02402336380093957</v>
       </c>
       <c r="D87">
-        <v>0.05170995155745311</v>
+        <v>0.01181664834835322</v>
       </c>
       <c r="E87">
-        <v>-0.01909140961931396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08594959209631807</v>
+      </c>
+      <c r="F87">
+        <v>-0.01751600280697656</v>
+      </c>
+      <c r="G87">
+        <v>0.1132828681702472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02983746144215192</v>
+        <v>-0.0923832007968087</v>
       </c>
       <c r="C88">
-        <v>0.03244529576525477</v>
+        <v>0.06787507207803574</v>
       </c>
       <c r="D88">
-        <v>0.06032968656385321</v>
+        <v>0.02252747630541345</v>
       </c>
       <c r="E88">
-        <v>0.003588972630303583</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.00712104787005549</v>
+      </c>
+      <c r="F88">
+        <v>0.01650000912320984</v>
+      </c>
+      <c r="G88">
+        <v>0.07971585097419019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09669280791442741</v>
+        <v>-0.2336041523236318</v>
       </c>
       <c r="C89">
-        <v>0.3865973277223936</v>
+        <v>-0.3666547235688516</v>
       </c>
       <c r="D89">
-        <v>-0.2166342752674218</v>
+        <v>0.0002818812776228216</v>
       </c>
       <c r="E89">
-        <v>0.0337289426631612</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01236128783041225</v>
+      </c>
+      <c r="F89">
+        <v>0.02679952766405696</v>
+      </c>
+      <c r="G89">
+        <v>0.06946381286920648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.0742807834970475</v>
+        <v>-0.2090112382877819</v>
       </c>
       <c r="C90">
-        <v>0.3027035429062412</v>
+        <v>-0.3180170349525408</v>
       </c>
       <c r="D90">
-        <v>-0.1941149486108933</v>
+        <v>-0.004285379501759314</v>
       </c>
       <c r="E90">
-        <v>-0.008350387256694743</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002540278965832285</v>
+      </c>
+      <c r="F90">
+        <v>0.05436483597174301</v>
+      </c>
+      <c r="G90">
+        <v>0.03593173752292059</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01488381649564778</v>
+        <v>-0.1867794558143233</v>
       </c>
       <c r="C91">
-        <v>0.1373264621618948</v>
+        <v>0.1393501816626092</v>
       </c>
       <c r="D91">
-        <v>0.213129385681661</v>
+        <v>-0.02244644056339181</v>
       </c>
       <c r="E91">
-        <v>0.02663655548723864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05766182805942202</v>
+      </c>
+      <c r="F91">
+        <v>0.1475476829743995</v>
+      </c>
+      <c r="G91">
+        <v>0.01780528851128913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.04299381176171301</v>
+        <v>-0.2004753181409331</v>
       </c>
       <c r="C92">
-        <v>0.3167319407822647</v>
+        <v>-0.2557681328581477</v>
       </c>
       <c r="D92">
-        <v>-0.09591027980496944</v>
+        <v>-0.0375743965625251</v>
       </c>
       <c r="E92">
-        <v>-0.04120874821216925</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03997148007444327</v>
+      </c>
+      <c r="F92">
+        <v>0.05579911288427434</v>
+      </c>
+      <c r="G92">
+        <v>0.1328037708502086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.07444903458390952</v>
+        <v>-0.2332173314399253</v>
       </c>
       <c r="C93">
-        <v>0.3313645381752943</v>
+        <v>-0.3144660964587447</v>
       </c>
       <c r="D93">
-        <v>-0.1659687477984053</v>
+        <v>-0.01092660393795794</v>
       </c>
       <c r="E93">
-        <v>-0.01949565152052857</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009846407490911559</v>
+      </c>
+      <c r="F93">
+        <v>0.04076731216817416</v>
+      </c>
+      <c r="G93">
+        <v>0.04861698656537498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.04532644475631642</v>
+        <v>-0.3155661777982125</v>
       </c>
       <c r="C94">
-        <v>0.1782969443222547</v>
+        <v>0.1760780232902808</v>
       </c>
       <c r="D94">
-        <v>0.2663295166136777</v>
+        <v>-0.01732231621938754</v>
       </c>
       <c r="E94">
-        <v>0.04735742574202739</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1689033825546409</v>
+      </c>
+      <c r="F94">
+        <v>0.4841730210069381</v>
+      </c>
+      <c r="G94">
+        <v>-0.3808143033163552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002290468950340366</v>
+        <v>-0.1004670268919687</v>
       </c>
       <c r="C95">
-        <v>0.03604329297849953</v>
+        <v>0.08662664538722543</v>
       </c>
       <c r="D95">
-        <v>0.1121580500717607</v>
+        <v>-0.0106247665880962</v>
       </c>
       <c r="E95">
-        <v>-0.1358452699357313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06597214519292757</v>
+      </c>
+      <c r="F95">
+        <v>-0.2104815644266274</v>
+      </c>
+      <c r="G95">
+        <v>-0.1030763933639047</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02200447155295667</v>
+        <v>-0.1977870055317332</v>
       </c>
       <c r="C98">
-        <v>0.1583671061032316</v>
+        <v>0.04545789215569187</v>
       </c>
       <c r="D98">
-        <v>0.1342168082308019</v>
+        <v>-0.01373573592481598</v>
       </c>
       <c r="E98">
-        <v>-0.02377104000678661</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06067691424500627</v>
+      </c>
+      <c r="F98">
+        <v>-0.2401925213787341</v>
+      </c>
+      <c r="G98">
+        <v>-0.007914403425370588</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009551706086133739</v>
+        <v>-0.009491380823293583</v>
       </c>
       <c r="C101">
-        <v>0.01761390348276994</v>
+        <v>0.02321295808532534</v>
       </c>
       <c r="D101">
-        <v>0.01989004497072186</v>
+        <v>0.008717630371707049</v>
       </c>
       <c r="E101">
-        <v>0.0005674306792226246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001091629081420852</v>
+      </c>
+      <c r="F101">
+        <v>0.01813076761165145</v>
+      </c>
+      <c r="G101">
+        <v>0.09056262070214827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0202073985959959</v>
+        <v>-0.1170368432731149</v>
       </c>
       <c r="C102">
-        <v>0.06165404212182179</v>
+        <v>0.08383752982739011</v>
       </c>
       <c r="D102">
-        <v>0.1225686682488443</v>
+        <v>0.000781295164930579</v>
       </c>
       <c r="E102">
-        <v>0.01411057036510159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03379984629089191</v>
+      </c>
+      <c r="F102">
+        <v>0.04139601630178831</v>
+      </c>
+      <c r="G102">
+        <v>0.007236294987890604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9670997866769642</v>
+        <v>-0.0211288211717401</v>
       </c>
       <c r="C104">
-        <v>-0.2156666107309386</v>
+        <v>-0.02898724490299532</v>
       </c>
       <c r="D104">
-        <v>-0.02232131885546992</v>
+        <v>0.9878430720842507</v>
       </c>
       <c r="E104">
-        <v>0.03086012932813186</v>
+        <v>-0.04587391418781389</v>
+      </c>
+      <c r="F104">
+        <v>0.03607488877837628</v>
+      </c>
+      <c r="G104">
+        <v>-0.03240839168107006</v>
       </c>
     </row>
   </sheetData>
